--- a/woniuboss4.0_LT/woniuboss4.0_testcase.xlsx
+++ b/woniuboss4.0_LT/woniuboss4.0_testcase.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="培训资源" sheetId="1" r:id="rId1"/>
     <sheet name="后台管理" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="流程用例" sheetId="4" r:id="rId4"/>
+    <sheet name="权限用例" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1207">
   <si>
     <t>所属模块</t>
   </si>
@@ -54065,6 +54067,9394 @@
         <charset val="134"/>
       </rPr>
       <t>首页显示公告</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报名流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已缴清</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">使用超级管理员账户
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">超级管理员登录系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备好已开班班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WNSHC888
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二狗</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入市场营销页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增一个网络资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部
+状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库
+渠道来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">网络
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">给管理员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入培训资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个人池进行跟踪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入读班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应缴学费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">支付宝
+发送短信
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入财务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员学费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜素学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击缴费
+缴费状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已缴清
+金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴费总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">支付宝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入学员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击修改
+学员状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">分配成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">存在个人池
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">跟踪成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">缴费成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改成功</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报名流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比例分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已缴清</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入市场营销页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击上传简历文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部
+简历文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击按比例分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择均分比例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">按比例分配给管理员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入培训资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个人池进行跟踪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中管理员分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入读班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应缴学费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">支付宝
+发送短信
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入财务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员学费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜素学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击缴费
+缴费状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已缴清
+金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴费总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">支付宝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入学员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击修改
+学员状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报名流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未缴清</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入市场营销页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增一个网络资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部
+状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库
+渠道来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">网络
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">给管理员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入培训资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">个人池进行跟踪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击跟踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟踪信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本次状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入读班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应缴学费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">支付宝
+发送短信
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入财务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员学费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜素学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击缴费
+缴费状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已缴定金
+未缴金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴费总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18800
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">支付宝
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入学员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击修改
+学员状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入课程安排页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击排课
+开始时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2020-02-24
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2020-05-07
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讲师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学部主管
+教室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四教室
+班号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">第一周
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班主任账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入学员考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每日考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考评操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击考勤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入日常考评
+考评操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击作业
+晨考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击晨考
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入题库管理
+点击选择题
+方向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发
+阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段
+课程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">答案
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考试结束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击阶段考评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击录入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:80
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段
+评语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:xxx
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待到项目阶段后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击技术面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入技术面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>良
+评价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:xxx
+7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业老师账号登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击模拟面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击面试
+期望薪资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:10000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沟通能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>良
+备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:xxx
+8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业老师点击入职信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中学员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击新增
+入职岗位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程师
+入职时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2020-04-23
+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>薪资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:10000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腾讯
+备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:xxx</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班主任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询主管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">教学主管账户
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备好已开班班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WNSHC888
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在企业客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腾讯</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每日考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请假记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日常考评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合考评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人事面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录入入职记录</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">排课成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">考勤成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">晨考成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">出题成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">阶段考成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">技术面试成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">人事面试成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">入职信息录入成功
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每日考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请假记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日常考评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>综合考评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术面试不过关</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入课程安排页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击排课
+开始时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2020-02-24
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2020-05-07
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讲师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学部主管
+教室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四教室
+班号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">第一周
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班主任账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入学员考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每日考勤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考评操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击考勤
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入日常考评
+考评操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击作业
+晨考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点击晨考
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入题库管理
+点击选择题
+方向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发
+阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段
+课程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">JavaScript
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">答案
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考试结束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击阶段考评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击录入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNSHC888
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成绩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:80
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段
+评语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:xxx
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待到项目阶段后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师账户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击技术面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入技术面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>差
+评价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:xxx
+7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新进入阶段学习</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">排课成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">考勤成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">晨考成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">出题成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">阶段考成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">技术面试不成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进入下阶段学习
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超级管理员权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色管理授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定用户角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销登录验证权限功能</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.woniuboss4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件环境</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人事管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击新增
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发部
+姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超级管理员
+职位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超级管理员
+工号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:WNCD000
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中超级管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passwd_status,passwd2_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态均为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全选
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中超级管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设定角色
+角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">超级管理员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用超级管理员账户登录
+账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNCD000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:woniu123
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查导航栏功能模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进入模块检查各小模块功能
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增员工成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">修改状态成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">授权成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">角色设定成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">登录成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限验证成功</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色管理授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定用户角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销登录验证权限功能</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人事管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击新增
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学部
+姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李老师
+职位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老师
+工号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:WNCD018
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中超级管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passwd_status,passwd2_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态均为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就业管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题库管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设定角色
+角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">老师
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用老师账户登录
+账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNCD018
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:woniu123
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查导航栏功能模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进入模块检查各小模块功能
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询主管权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色管理授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定用户角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销登录验证权限功能</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被辞退的咨询师权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色管理授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定用户角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销登录验证权限功能</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人事管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击新增
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部
+姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被辞退的咨询师
+职位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询师
+工号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:WNCD003
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中超级管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passwd_status,passwd2_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态均为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中被辞退的咨询师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设定角色
+角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">咨询师
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用咨询师账户登录
+账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNCD003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:woniu123
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查导航栏功能模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进入模块检查各小模块功能
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人事管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击新增
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部
+姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询主管
+职位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询主管
+工号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:WNCD017
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中超级管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passwd_status,passwd2_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态均为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询主管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设定角色
+角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">咨询主管
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用咨询主管账户登录
+账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNCD017
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:woniu123
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查导航栏功能模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进入模块检查各小模块功能
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场专员权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增员工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色管理授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定用户角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注销登录验证权限功能</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击人事管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击新增
+区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海
+部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场部
+姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场专员
+职位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场专员
+工号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:WNCD006
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中超级管理员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>passwd_status,passwd2_status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态均为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击授权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中市场专员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设定角色
+角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">市场专员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击注销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用市场专员登录
+账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:WNCD006
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:woniu123
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查导航栏功能模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进入模块检查各小模块功能
+</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -60513,8 +69903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -62219,4 +71609,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="52.75" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="300.75" customHeight="1">
+      <c r="B2" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="297.75">
+      <c r="B3" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="91.5" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.5">
+      <c r="B6" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="45.25" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="228.75" customHeight="1">
+      <c r="B2" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="256.5">
+      <c r="B3" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="242.25">
+      <c r="B4" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="322.5" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="242.25">
+      <c r="B6" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>